--- a/xlsx/盈利_intext.xlsx
+++ b/xlsx/盈利_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>盈利</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_盈利</t>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_盈利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5</t>
@@ -77,27 +77,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
   </si>
   <si>
-    <t>報酬</t>
+    <t>报酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%B8</t>
   </si>
   <si>
-    <t>正數</t>
+    <t>正数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E6%95%B8</t>
   </si>
   <si>
-    <t>負數</t>
+    <t>负数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E5%85%A8%E7%AB%9E%E4%BA%89</t>
   </si>
   <si>
@@ -107,25 +104,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD%E6%80%A7%E7%AB%9E%E4%BA%89</t>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
+    <t>竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>市場</t>
+    <t>市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B5%84</t>
@@ -173,13 +170,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E5%88%A9</t>
   </si>
   <si>
-    <t>純利</t>
+    <t>纯利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E9%8A%B7%E6%90%8D%E7%9B%8A%E5%B8%B3</t>
   </si>
   <si>
-    <t>購銷損益帳</t>
+    <t>购销损益帐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%8A%A1%E5%88%86%E6%9E%90</t>
@@ -197,9 +194,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利润最大化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6%E7%8E%87</t>
   </si>
   <si>
@@ -215,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
+    <t>微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
@@ -233,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -257,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -281,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -293,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -305,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -341,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -359,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -419,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -437,25 +431,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -485,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -539,19 +533,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
+    <t>计量经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -563,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
+    <t>博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
+    <t>数理经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
@@ -605,19 +599,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
+    <t>福利经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -1357,7 +1351,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1383,10 +1377,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1412,10 +1406,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -1441,10 +1435,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1470,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -1499,10 +1493,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>14</v>
@@ -1528,10 +1522,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1557,10 +1551,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1586,10 +1580,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>12</v>
@@ -1615,10 +1609,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1644,10 +1638,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1673,10 +1667,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1702,10 +1696,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1731,10 +1725,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1760,10 +1754,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1789,10 +1783,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1818,10 +1812,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1847,10 +1841,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1876,10 +1870,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1905,10 +1899,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1934,10 +1928,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -1963,10 +1957,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1992,10 +1986,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2021,10 +2015,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2050,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2079,10 +2073,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2108,10 +2102,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2137,10 +2131,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2166,10 +2160,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2195,10 +2189,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2224,10 +2218,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2253,10 +2247,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2282,10 +2276,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2311,10 +2305,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2340,10 +2334,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2369,10 +2363,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2398,10 +2392,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2427,10 +2421,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2456,10 +2450,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2485,10 +2479,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2514,10 +2508,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2543,10 +2537,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2572,10 +2566,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2601,10 +2595,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2630,10 +2624,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2659,10 +2653,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2688,10 +2682,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2717,10 +2711,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2746,10 +2740,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2775,10 +2769,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2804,10 +2798,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2833,10 +2827,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2862,10 +2856,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2891,10 +2885,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2920,10 +2914,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2949,10 +2943,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2978,10 +2972,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3007,10 +3001,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3036,10 +3030,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3065,10 +3059,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3094,10 +3088,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3123,10 +3117,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3152,10 +3146,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3181,10 +3175,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3210,10 +3204,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3239,10 +3233,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3268,10 +3262,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3297,10 +3291,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3326,10 +3320,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3355,10 +3349,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3384,10 +3378,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3413,10 +3407,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3442,10 +3436,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3471,10 +3465,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3500,10 +3494,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3529,10 +3523,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3558,10 +3552,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3587,10 +3581,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3616,10 +3610,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3645,10 +3639,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3674,10 +3668,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3703,10 +3697,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3732,10 +3726,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3761,10 +3755,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3790,10 +3784,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3819,10 +3813,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3848,10 +3842,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3877,10 +3871,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -3906,10 +3900,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3935,10 +3929,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3964,10 +3958,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>9</v>
@@ -3993,10 +3987,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>207</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
